--- a/AoC_2024/Day_01.xlsx
+++ b/AoC_2024/Day_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28407"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AOC_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C8CA9D-2B05-495D-BD6C-47C3984FA4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7AC004-1D75-4487-B00C-1B2F9142905E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="135" windowWidth="28725" windowHeight="17010" activeTab="2" xr2:uid="{B344835A-52C5-4B80-B83D-6FB39F3F04A6}"/>
+    <workbookView xWindow="8505" yWindow="1020" windowWidth="27060" windowHeight="16965" xr2:uid="{B344835A-52C5-4B80-B83D-6FB39F3F04A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1-PY" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 left, right = sorted(left), sorted(right)
 sum_of_diffs = sum(abs(a - b) for a, b in zip(left, right))
 similarity_score = sum(a * Counter(right)[a] for a in left)
-'Tratar los datos'</code>
+'Data Processed'</code>
     </pythonScript>
     <pythonScript>
       <code>sum_of_diffs</code>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3043" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3044" uniqueCount="1040">
   <si>
     <t>47078   87818</t>
   </si>
@@ -4487,9 +4487,6 @@
   </si>
   <si>
     <t>3   3</t>
-  </si>
-  <si>
-    <t>Text Part 1</t>
   </si>
   <si>
     <t>Test Part 2</t>
@@ -5097,6 +5094,12 @@
       <t>)))))</t>
     </r>
   </si>
+  <si>
+    <t>Test Part 1</t>
+  </si>
+  <si>
+    <t>Credits: Excel Wizard</t>
+  </si>
 </sst>
 </file>
 
@@ -5263,7 +5266,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -5330,11 +5333,11 @@
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
 <rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
   <rv s="0">
-    <fb t="s">Tratar los datos</fb>
+    <fb t="s">Data Processed</fb>
     <v>&lt;class 'str'&gt;</v>
     <v>str</v>
-    <v>Tratar los datos</v>
-    <v>Tratar los datos</v>
+    <v>Data Processed</v>
+    <v>Data Processed</v>
     <v>0</v>
     <v>1</v>
   </rv>
@@ -5761,10 +5764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F5126D-36AD-4CDE-9AFB-8C4AF55DD697}">
-  <dimension ref="A1:N1000"/>
+  <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5774,47 +5777,47 @@
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="str" cm="1" vm="1">
+      <c r="C1" s="11" t="str" cm="1" vm="1">
         <f t="array" ref="C1">_xlfn._xlws.PY(0,1,A1:A1000)</f>
-        <v>Tratar los datos</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>Data Processed</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>1002</v>
       </c>
+      <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1000</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5825,49 +5828,49 @@
       <c r="D4" s="6" t="s">
         <v>1008</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>1003</v>
       </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14">
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14">
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>1004</v>
       </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14">
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -5878,86 +5881,86 @@
       <c r="D7" s="6" t="s">
         <v>1009</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>1005</v>
       </c>
+      <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14">
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>1006</v>
       </c>
+      <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14">
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14">
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>1007</v>
       </c>
+      <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14">
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -15943,8 +15946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB6EFFA-25BE-4F8D-9C5F-87C2DAEDB97C}">
   <dimension ref="A1:T1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -15963,10 +15966,13 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="B1" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>1024</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>1025</v>
+      <c r="P1" s="2" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -16174,53 +16180,53 @@
     </row>
     <row r="9" spans="1:20">
       <c r="G9" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="R9" s="8" cm="1">
         <f t="array" ref="R9">_xlfn.LET(_xlpm.a,--_xlfn.TEXTSPLIT(_xlfn.CONCAT(A13:A1012&amp;"_")," ","_",1),SUM(ABS(_xlfn._xlws.SORT(_xlfn.TAKE(_xlpm.a,,1))-_xlfn._xlws.SORT(_xlfn.DROP(_xlpm.a,,1)))))</f>
         <v>1222801</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="F10" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="E11" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>1028</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>1029</v>
-      </c>
       <c r="H12" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>1028</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>1026</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>1029</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -16459,7 +16465,7 @@
         <v>22545250</v>
       </c>
       <c r="T19" s="9" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -16493,7 +16499,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="9" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="21" spans="1:20">
